--- a/CDM Content/Digital Building Twin/CDM_Floor.xlsx
+++ b/CDM Content/Digital Building Twin/CDM_Floor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshuathiele/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://buildingminds1.sharepoint.com/sites/CDM-testteam/Freigegebene Dokumente/General/CDM Content/Digital Building Twin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B83FC6-031B-CE46-A00B-A73C9136762C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{F6B83FC6-031B-CE46-A00B-A73C9136762C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{7797D47C-3847-6A48-8E96-E21636B77865}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{85083611-9EE2-4F48-BB3D-6A0A91DF77F0}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{85083611-9EE2-4F48-BB3D-6A0A91DF77F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>Name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>BuildingId</t>
   </si>
@@ -54,25 +51,13 @@
     <t>ValidUntil</t>
   </si>
   <si>
-    <t>AreaMeasurementId</t>
+    <t>Name</t>
   </si>
   <si>
     <t>FloorNumber</t>
   </si>
   <si>
-    <t>FloorHightRaw</t>
-  </si>
-  <si>
-    <t>FloorLevelShell</t>
-  </si>
-  <si>
-    <t>ConstructionAreaBearing</t>
-  </si>
-  <si>
-    <t>ConstructionAreaNonBearing</t>
-  </si>
-  <si>
-    <t>GUID</t>
+    <t>Guid</t>
   </si>
 </sst>
 </file>
@@ -425,18 +410,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B3D4E98-1349-EF46-83A9-BEA8BC5DB549}">
-  <dimension ref="A1:M86"/>
+  <dimension ref="A1:H86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="11" customWidth="1"/>
-    <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="11" max="13" width="11" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" customWidth="1"/>
     <col min="15" max="15" width="11" customWidth="1"/>
     <col min="17" max="19" width="11" customWidth="1"/>
     <col min="21" max="23" width="11" customWidth="1"/>
@@ -444,7 +433,7 @@
     <col min="34" max="35" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -452,47 +441,29 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>0</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
       </c>
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
@@ -512,18 +483,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -711,6 +682,15 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B31AB8-993E-4D4B-AEA8-7989F5843AC8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99A24C1D-9994-4866-9989-C63206960D55}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -718,22 +698,20 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B31AB8-993E-4D4B-AEA8-7989F5843AC8}">
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{726C0262-ED75-47CE-A200-E562582077E1}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="da2ca412-be8f-4031-b82f-0db1c7fd28cd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="da2ca412-be8f-4031-b82f-0db1c7fd28cd"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{726C0262-ED75-47CE-A200-E562582077E1}"/>
 </file>